--- a/Mail/test.xlsx
+++ b/Mail/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\ICISTS\Mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA00578-E6F3-474B-A365-E6C079B41937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B171E4B-CA15-4907-86D8-868513142DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7140" xr2:uid="{233AE010-7636-4157-A3F2-16929FCFCCD3}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Ms.BAEK</t>
   </si>
   <si>
-    <t>icists@icists.org</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>sk_and_mc@naver.com</t>
+  </si>
+  <si>
+    <t>syjn99@naver.com</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,33 +465,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>33</v>
